--- a/xlsx_files/Race54.xlsx
+++ b/xlsx_files/Race54.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9682F4EC-EC99-4576-B10C-CFCA56F43B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC7026E-A4BD-45EA-B7A1-1FF271594666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4872" windowWidth="18516" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Track Name</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>01:57.1650</t>
+  </si>
+  <si>
+    <t>Nikita Dembitskiy</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -784,8 +787,8 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -793,7 +796,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -801,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -809,7 +812,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -817,7 +820,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -825,12 +828,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2"/>

--- a/xlsx_files/Race54.xlsx
+++ b/xlsx_files/Race54.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC7026E-A4BD-45EA-B7A1-1FF271594666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC0BD1-0E41-421A-84E5-6386007457EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Track Name</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Nikita Dembitskiy</t>
+  </si>
+  <si>
+    <t>01:56.5920</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -672,13 +675,19 @@
         <v>32</v>
       </c>
       <c r="E2" s="1">
-        <v>45524</v>
+        <v>45518</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
